--- a/exercicos/Exercicio001.xlsx
+++ b/exercicos/Exercicio001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuvem Shop\OneDrive - WA3 SOLUCOES E SERVICOS EM TI LTDA\Attachments\Documentos\recode\CursodeExcel\exercicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuvem Shop\OneDrive - WA3 SOLUCOES E SERVICOS EM TI LTDA\Attachments\Documentos\recode\cursodeexcel\exercicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDFF7DC-C545-4722-9DFC-C3C08399CC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7208B32-A326-4416-938B-7792DD1AB85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F45D26D-2238-4481-9658-BD6DE7075A96}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="66">
   <si>
     <t>ORDEM</t>
   </si>
@@ -346,10 +346,10 @@
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE04AC-FCF4-4AF3-A817-A91A34FBBCE8}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,16 +685,16 @@
     <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -736,8 +736,11 @@
       <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -763,7 +766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -789,7 +792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -815,7 +818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -841,7 +844,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -867,7 +870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -893,7 +896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -916,7 +919,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -939,7 +942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -962,7 +965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -985,7 +988,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1109,7 +1112,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="8"/>
+      <c r="G20" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E19">
@@ -1141,13 +1144,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
